--- a/Astronomyhw.xlsx
+++ b/Astronomyhw.xlsx
@@ -263,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Celestial">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Celestial">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,48 +273,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="18276C"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EBEBEB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="AC3EC1"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="477BD1"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="46B298"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="90BA4C"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="DD9D31"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="E25247"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="C573D2"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="CCAEE8"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Celestial">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -343,13 +343,13 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -375,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Celestial">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,23 +384,14 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="70000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="82000"/>
+                <a:alpha val="74000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -410,50 +401,38 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
+                <a:tint val="98000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="88000"/>
+                <a:lumMod val="88000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -461,55 +440,64 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="63500" dist="38100" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="65000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="tl">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="38100" h="12700"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="90000"/>
+                <a:shade val="96000"/>
+                <a:hueMod val="100000"/>
+                <a:satMod val="180000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="96000"/>
+                <a:satMod val="160000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="4740000" scaled="1"/>
         </a:gradFill>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -517,7 +505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Celestial" id="{C4BB2A3D-0E93-4C5F-B0D2-9D3FCE089CC5}" vid="{42E5908D-19A2-46FD-89FA-638B126129EF}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -529,19 +517,19 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
@@ -1004,5 +992,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Astronomyhw.xlsx
+++ b/Astronomyhw.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/Documents/GitHub/html/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59EB355-4ABD-469C-BCB7-10979B91B237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Astronomy HW</t>
   </si>
@@ -96,13 +97,25 @@
   </si>
   <si>
     <t>Scaled Diameter (in)</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>trillion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,19 +234,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyAlignment="1"/>
@@ -243,9 +256,14 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
+    <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
@@ -257,6 +275,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -512,52 +533,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="107" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="23.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="20.25" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" thickTop="1"/>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="18" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
@@ -571,14 +592,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1391684</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>0</v>
       </c>
       <c r="E5">
@@ -598,14 +619,14 @@
         <v>3.6527140276479999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>4879</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>57950000</v>
       </c>
       <c r="E6">
@@ -625,14 +646,14 @@
         <v>1.2805774688E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>12104</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>108110000</v>
       </c>
       <c r="E7">
@@ -640,7 +661,7 @@
         <v>8.0693333333333329E-4</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F6:F17" si="3">C7/15000000</f>
+        <f t="shared" ref="F7:F17" si="3">C7/15000000</f>
         <v>7.2073333333333336</v>
       </c>
       <c r="H7">
@@ -652,14 +673,14 @@
         <v>3.1769029887999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>12742</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>149570000</v>
       </c>
       <c r="E8">
@@ -679,14 +700,14 @@
         <v>3.3443570623999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>6779</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>227840000</v>
       </c>
       <c r="E9">
@@ -706,14 +727,14 @@
         <v>1.7792651488000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>946</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>414010000</v>
       </c>
       <c r="E10">
@@ -733,14 +754,14 @@
         <v>2.4829397119999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>139822</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>778140000</v>
       </c>
       <c r="E11">
@@ -760,14 +781,14 @@
         <v>0.36698688838400001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>116464</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>1427000000</v>
       </c>
       <c r="E12">
@@ -787,14 +808,14 @@
         <v>0.30567979980799997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>50724</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>2870300000</v>
       </c>
       <c r="E13">
@@ -814,14 +835,14 @@
         <v>0.133133862528</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>49244</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>4499900000</v>
       </c>
       <c r="E14">
@@ -841,14 +862,14 @@
         <v>0.12924934796799997</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>2368</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>5913000000</v>
       </c>
       <c r="E15">
@@ -868,14 +889,14 @@
         <v>6.2152232959999994E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>2326</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>10120000000</v>
       </c>
       <c r="E16">
@@ -895,14 +916,14 @@
         <v>6.1049870719999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>201800</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>40400000000000</v>
       </c>
       <c r="E17">
@@ -922,76 +943,110 @@
         <v>0.52965880959999989</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+    <row r="19" spans="1:9">
+      <c r="F19">
+        <f>F17/1000</f>
+        <v>2693.3333333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.25">
+      <c r="C20" s="11">
+        <f>4.6*323400000</f>
+        <v>1487640000</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.25">
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.25">
+      <c r="C22" s="10">
+        <f>(C17-C15)/15</f>
+        <v>2692939133333.3335</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.25">
+      <c r="E23" s="12">
+        <v>1000000000</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.25">
+      <c r="E24" s="12">
+        <v>1000000000000</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.25">
+      <c r="E25" s="12"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.25">
+      <c r="E26" s="12">
+        <f>4300000*300000000</f>
+        <v>1290000000000000</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.25">
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.25">
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.25">
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="20.25">
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.25">
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.25">
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>